--- a/server/SmallTests/input_excels/Corp.Transactions.xlsx
+++ b/server/SmallTests/input_excels/Corp.Transactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmihaylov/PycharmProjects/delivery_planner_api/server/SmallTests/input_excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmihaylov/PycharmProjects/delivery_planner/server/SmallTests/input_excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E559C-F661-A348-938B-27E960108533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD49B3D5-65F7-A34E-AD45-E7481ADF1772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Период расчета" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Существующие ресурсы" sheetId="7" r:id="rId4"/>
     <sheet name="Планируемые ресурсы" sheetId="8" r:id="rId5"/>
     <sheet name="Отпуска" sheetId="9" r:id="rId6"/>
-    <sheet name="Репозиторий задач" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Заявки!$A$1:$R$102</definedName>
@@ -41814,7 +41813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -42921,18 +42920,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44471DF7-F1DC-E747-8889-6E6AC025CFC3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>